--- a/__encodeapk/text_01.xlsx
+++ b/__encodeapk/text_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/个税app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/zfb/code/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0960F5FC-770C-EF43-8019-74E59FB20E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F8DEA-8D1A-6D42-ABB0-6471202AE17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="460" windowWidth="19360" windowHeight="16220" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="9540" yWindow="3420" windowWidth="19360" windowHeight="13800" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>汇缴分配</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>张硕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所得项目小类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -118,8 +126,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -178,7 +187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -207,6 +216,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +649,7 @@
         <v>5034</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" ref="D8:D36" si="0">TEXT(A8,"yyyy-mm-dd")</f>
+        <f t="shared" ref="D8:D34" si="0">TEXT(A8,"yyyy-mm-dd")</f>
         <v>2020-02-24</v>
       </c>
     </row>
@@ -697,7 +709,7 @@
         <v>5034</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>TEXT(A12,"yyyy-mm-dd")</f>
+        <f t="shared" ref="D12:D19" si="1">TEXT(A12,"yyyy-mm-dd")</f>
         <v>2020-06-24</v>
       </c>
     </row>
@@ -712,7 +724,7 @@
         <v>5034</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>TEXT(A13,"yyyy-mm-dd")</f>
+        <f t="shared" si="1"/>
         <v>2020-07-24</v>
       </c>
     </row>
@@ -727,7 +739,7 @@
         <v>5034</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>TEXT(A14,"yyyy-mm-dd")</f>
+        <f t="shared" si="1"/>
         <v>2020-08-24</v>
       </c>
     </row>
@@ -742,7 +754,7 @@
         <v>5034</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>TEXT(A15,"yyyy-mm-dd")</f>
+        <f t="shared" si="1"/>
         <v>2020-09-24</v>
       </c>
     </row>
@@ -757,7 +769,7 @@
         <v>5034</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>TEXT(A16,"yyyy-mm-dd")</f>
+        <f t="shared" si="1"/>
         <v>2020-10-24</v>
       </c>
     </row>
@@ -772,7 +784,7 @@
         <v>5034</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>TEXT(A17,"yyyy-mm-dd")</f>
+        <f t="shared" si="1"/>
         <v>2020-11-24</v>
       </c>
     </row>
@@ -787,7 +799,7 @@
         <v>5034</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>TEXT(A18,"yyyy-mm-dd")</f>
+        <f t="shared" si="1"/>
         <v>2020-12-24</v>
       </c>
     </row>
@@ -802,7 +814,7 @@
         <v>867</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>TEXT(A19,"yyyy-mm-dd")</f>
+        <f t="shared" si="1"/>
         <v>2020-06-30</v>
       </c>
     </row>
@@ -1075,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13692D9D-37A5-5443-BE24-0120BC67A1BE}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1153,8 +1165,16 @@
         <v>6360</v>
       </c>
     </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="7">
@@ -1168,12 +1188,12 @@
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>5034</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>TEXT(A7,"yyyy-mm-dd")</f>
-        <v>2020-01-24</v>
+        <f>TEXT(A7,"mm-dd")</f>
+        <v>01-24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1183,12 +1203,12 @@
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>5034</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" ref="D8:D36" si="0">TEXT(A8,"yyyy-mm-dd")</f>
-        <v>2020-02-24</v>
+        <f t="shared" ref="D8:D50" si="0">TEXT(A8,"mm-dd")</f>
+        <v>02-24</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1198,12 +1218,12 @@
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>5034</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-24</v>
+        <v>03-24</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1213,12 +1233,12 @@
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>5034</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-24</v>
+        <v>04-24</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1228,12 +1248,12 @@
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>5034</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-24</v>
+        <v>05-24</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1243,12 +1263,12 @@
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <v>5034</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>TEXT(A12,"yyyy-mm-dd")</f>
-        <v>2020-06-24</v>
+        <f t="shared" si="0"/>
+        <v>06-24</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1258,12 +1278,12 @@
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <v>5034</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>TEXT(A13,"yyyy-mm-dd")</f>
-        <v>2020-07-24</v>
+        <f t="shared" si="0"/>
+        <v>07-24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1273,12 +1293,12 @@
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <v>5034</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>TEXT(A14,"yyyy-mm-dd")</f>
-        <v>2020-08-24</v>
+        <f t="shared" si="0"/>
+        <v>08-24</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1288,12 +1308,12 @@
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <v>5034</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>TEXT(A15,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <f t="shared" si="0"/>
+        <v>09-24</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1303,12 +1323,12 @@
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <v>5034</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>TEXT(A16,"yyyy-mm-dd")</f>
-        <v>2020-10-24</v>
+        <f t="shared" si="0"/>
+        <v>10-24</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1318,12 +1338,12 @@
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="10">
         <v>5034</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>TEXT(A17,"yyyy-mm-dd")</f>
-        <v>2020-11-24</v>
+        <f t="shared" si="0"/>
+        <v>11-24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1333,12 +1353,12 @@
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <v>5034</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>TEXT(A18,"yyyy-mm-dd")</f>
-        <v>2020-12-24</v>
+        <f t="shared" si="0"/>
+        <v>12-24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1348,12 +1368,12 @@
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="10">
         <v>867</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>TEXT(A19,"yyyy-mm-dd")</f>
-        <v>2020-06-30</v>
+        <f>TEXT(A19,"mm-dd")</f>
+        <v>06-30</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1371,12 +1391,12 @@
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <v>5034</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-01-24</v>
+        <f>TEXT(A24,"mm-dd")</f>
+        <v>01-24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1386,12 +1406,12 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="10">
         <v>5034</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-24</v>
+        <f t="shared" ref="D25:D36" si="1">TEXT(A25,"mm-dd")</f>
+        <v>02-24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1401,12 +1421,12 @@
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="10">
         <v>5034</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-03-24</v>
+        <f t="shared" si="1"/>
+        <v>03-24</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1416,12 +1436,12 @@
       <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="10">
         <v>5034</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-04-24</v>
+        <f t="shared" si="1"/>
+        <v>04-24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1431,12 +1451,12 @@
       <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="10">
         <v>5034</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-05-24</v>
+        <f t="shared" si="1"/>
+        <v>05-24</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1446,12 +1466,12 @@
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="10">
         <v>867</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-06-30</v>
+        <f t="shared" si="1"/>
+        <v>06-30</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1461,12 +1481,12 @@
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="10">
         <v>5034</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-06-24</v>
+        <f t="shared" si="1"/>
+        <v>06-24</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1476,12 +1496,12 @@
       <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="10">
         <v>5034</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-07-24</v>
+        <f t="shared" si="1"/>
+        <v>07-24</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1491,12 +1511,12 @@
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="10">
         <v>5034</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-08-24</v>
+        <f t="shared" si="1"/>
+        <v>08-24</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1506,12 +1526,12 @@
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="10">
         <v>5034</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-09-24</v>
+        <f t="shared" si="1"/>
+        <v>09-24</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1521,12 +1541,12 @@
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="10">
         <v>5034</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-10-24</v>
+        <f t="shared" si="1"/>
+        <v>10-24</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1536,12 +1556,12 @@
       <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="10">
         <v>5034</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>TEXT(A35,"yyyy-mm-dd")</f>
-        <v>2019-12-24</v>
+        <f t="shared" si="1"/>
+        <v>12-24</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1551,12 +1571,12 @@
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="10">
         <v>5034</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>TEXT(A36,"yyyy-mm-dd")</f>
-        <v>2019-11-24</v>
+        <f t="shared" si="1"/>
+        <v>11-24</v>
       </c>
     </row>
     <row r="40" spans="1:4">

--- a/__encodeapk/text_01.xlsx
+++ b/__encodeapk/text_01.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/个税app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/others/zfb/code/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0960F5FC-770C-EF43-8019-74E59FB20E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B60978A-1ADE-504B-996F-FA7A153CDCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="460" windowWidth="19360" windowHeight="16220" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="13560" yWindow="9120" windowWidth="22240" windowHeight="13800" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="56">
   <si>
     <t>汇缴分配</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张硕士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GJJ07021325</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,23 +85,139 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>上年结转额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本年缴存额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本年支取额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张硕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所得项目小类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴 30℃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴 31℃</t>
+  </si>
+  <si>
+    <t>晴 32℃</t>
+  </si>
+  <si>
+    <t>晴 33℃</t>
+  </si>
+  <si>
+    <t>晴 34℃</t>
+  </si>
+  <si>
+    <t>晴 35℃</t>
+  </si>
+  <si>
+    <t>晴 36℃</t>
+  </si>
+  <si>
+    <t>晴 37℃</t>
+  </si>
+  <si>
+    <t>晴 38℃</t>
+  </si>
+  <si>
+    <t>晴 39℃</t>
+  </si>
+  <si>
+    <t>晴 40℃</t>
+  </si>
+  <si>
+    <t>晴 41℃</t>
+  </si>
+  <si>
+    <t>晴 42℃</t>
+  </si>
+  <si>
+    <t>年度结息</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>个人账号</t>
+  </si>
+  <si>
+    <t>缴存单位</t>
+  </si>
+  <si>
+    <t>所属管理部名称</t>
+  </si>
+  <si>
+    <t>缴存基数</t>
+  </si>
+  <si>
+    <t>个人比例</t>
+  </si>
+  <si>
+    <t>单位比例</t>
+  </si>
+  <si>
+    <t>个人月缴存额</t>
+  </si>
+  <si>
+    <t>单位月缴存额</t>
+  </si>
+  <si>
+    <t>庄旭叶</t>
+  </si>
+  <si>
+    <t>GJJ070570581</t>
+  </si>
+  <si>
+    <t>北京大学首钢医院</t>
+  </si>
+  <si>
+    <t>石景山管理部</t>
+  </si>
+  <si>
+    <t>申报日期</t>
+  </si>
+  <si>
+    <t>所得项目小类</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>汇缴分配</t>
+  </si>
+  <si>
+    <t>提取资金支付</t>
+  </si>
+  <si>
+    <t>提取</t>
+  </si>
+  <si>
+    <t>jiben</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴 27℃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取资金支付</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄旭叶1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -118,10 +225,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +257,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -178,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,9 +321,6 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -207,6 +328,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,11 +661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DECE590-98AF-1248-BA5A-126497E44414}">
-  <dimension ref="A1:L53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13692D9D-37A5-5443-BE24-0120BC67A1BE}">
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -534,9 +673,10 @@
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -564,251 +704,390 @@
       <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9">
+        <v>53000</v>
+      </c>
+      <c r="F2" s="9">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9">
+        <v>6360</v>
+      </c>
+      <c r="I2" s="9">
+        <v>6360</v>
+      </c>
+      <c r="J2" s="9">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7">
+        <v>44089</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(K2,"yyyy-mm-dd")</f>
+        <v>2020-09-15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="K3" s="7">
+        <v>44090</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-09-16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="K4" s="7">
+        <v>44091</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="K5" s="7">
+        <v>44092</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>53000</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>6360</v>
-      </c>
-      <c r="I2">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="8">
+      <c r="K6" s="7">
+        <v>44093</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7">
         <v>43854</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>5034</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>TEXT(A7,"yyyy-mm-dd")</f>
-        <v>2020-01-24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8">
+        <f>TEXT(A7,"mm-dd")</f>
+        <v>01-24</v>
+      </c>
+      <c r="K7" s="7">
+        <v>44094</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7">
         <v>43885</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>5034</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" ref="D8:D36" si="0">TEXT(A8,"yyyy-mm-dd")</f>
-        <v>2020-02-24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8">
+        <f t="shared" ref="D8:D18" si="1">TEXT(A8,"mm-dd")</f>
+        <v>02-24</v>
+      </c>
+      <c r="K8" s="7">
+        <v>44095</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7">
         <v>43914</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>5034</v>
       </c>
       <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>03-24</v>
+      </c>
+      <c r="K9" s="7">
+        <v>44096</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8">
+        <v>2020-09-22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7">
         <v>43945</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>5034</v>
       </c>
       <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>04-24</v>
+      </c>
+      <c r="K10" s="7">
+        <v>44097</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="8">
+        <v>2020-09-23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7">
         <v>43975</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>5034</v>
       </c>
       <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>05-24</v>
+      </c>
+      <c r="K11" s="7">
+        <v>44098</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="8">
+        <v>2020-09-24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7">
         <v>44006</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>5034</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>TEXT(A12,"yyyy-mm-dd")</f>
-        <v>2020-06-24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="8">
+        <f t="shared" si="1"/>
+        <v>06-24</v>
+      </c>
+      <c r="K12" s="7">
+        <v>44099</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7">
         <v>44036</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>5034</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>TEXT(A13,"yyyy-mm-dd")</f>
-        <v>2020-07-24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="8">
+        <f t="shared" si="1"/>
+        <v>07-24</v>
+      </c>
+      <c r="K13" s="7">
+        <v>44100</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7">
         <v>44067</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>5034</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>TEXT(A14,"yyyy-mm-dd")</f>
-        <v>2020-08-24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="8">
+        <f t="shared" si="1"/>
+        <v>08-24</v>
+      </c>
+      <c r="K14" s="7">
+        <v>44101</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7">
         <v>44098</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>5034</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>TEXT(A15,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="8">
+        <f t="shared" si="1"/>
+        <v>09-24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7">
         <v>44128</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="9">
         <v>5034</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>TEXT(A16,"yyyy-mm-dd")</f>
-        <v>2020-10-24</v>
+        <f t="shared" si="1"/>
+        <v>10-24</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>44159</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <v>5034</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>TEXT(A17,"yyyy-mm-dd")</f>
-        <v>2020-11-24</v>
+        <f t="shared" si="1"/>
+        <v>11-24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>44189</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <v>5034</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>TEXT(A18,"yyyy-mm-dd")</f>
-        <v>2020-12-24</v>
+        <f t="shared" si="1"/>
+        <v>12-24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>44012</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="9">
         <v>867</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>TEXT(A19,"yyyy-mm-dd")</f>
-        <v>2020-06-30</v>
+        <f>TEXT(A19,"mm-dd")</f>
+        <v>06-30</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B23" s="4">
         <v>2019</v>
@@ -821,12 +1100,12 @@
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="9">
         <v>5034</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-01-24</v>
+        <f>TEXT(A24,"mm-dd")</f>
+        <v>01-24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -836,12 +1115,12 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="9">
         <v>5034</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-24</v>
+        <f t="shared" ref="D25:D36" si="2">TEXT(A25,"mm-dd")</f>
+        <v>02-24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -851,12 +1130,12 @@
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="9">
         <v>5034</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-03-24</v>
+        <f t="shared" si="2"/>
+        <v>03-24</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -866,12 +1145,12 @@
       <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="9">
         <v>5034</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-04-24</v>
+        <f t="shared" si="2"/>
+        <v>04-24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -881,12 +1160,12 @@
       <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="9">
         <v>5034</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-05-24</v>
+        <f t="shared" si="2"/>
+        <v>05-24</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -896,12 +1175,12 @@
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="9">
         <v>867</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-06-30</v>
+        <f t="shared" si="2"/>
+        <v>06-30</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -911,12 +1190,12 @@
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="9">
         <v>5034</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-06-24</v>
+        <f t="shared" si="2"/>
+        <v>06-24</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -926,12 +1205,12 @@
       <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="9">
         <v>5034</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-07-24</v>
+        <f t="shared" si="2"/>
+        <v>07-24</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -941,12 +1220,12 @@
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="9">
         <v>5034</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-08-24</v>
+        <f t="shared" si="2"/>
+        <v>08-24</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -956,12 +1235,12 @@
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="9">
         <v>5034</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-09-24</v>
+        <f t="shared" si="2"/>
+        <v>09-24</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -971,12 +1250,12 @@
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="9">
         <v>5034</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-10-24</v>
+        <f t="shared" si="2"/>
+        <v>10-24</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -986,12 +1265,12 @@
       <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="9">
         <v>5034</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>TEXT(A35,"yyyy-mm-dd")</f>
-        <v>2019-12-24</v>
+        <f t="shared" si="2"/>
+        <v>12-24</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1001,12 +1280,12 @@
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="9">
         <v>5034</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>TEXT(A36,"yyyy-mm-dd")</f>
-        <v>2019-11-24</v>
+        <f t="shared" si="2"/>
+        <v>11-24</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1072,548 +1351,2611 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13692D9D-37A5-5443-BE24-0120BC67A1BE}">
-  <dimension ref="A1:L53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB30BBA1-B9A3-D741-9C3F-84FC00DBD527}">
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="12" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="11" customWidth="1"/>
+    <col min="5" max="10" width="11" style="11"/>
+    <col min="11" max="11" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="11"/>
+    <col min="13" max="13" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:13">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="11">
+        <v>19800</v>
+      </c>
+      <c r="F2" s="11">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>53000</v>
-      </c>
-      <c r="F2">
+      <c r="G2" s="11">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="11">
+        <v>2376</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2376</v>
+      </c>
+      <c r="J2" s="13">
+        <v>48925.8923</v>
+      </c>
+      <c r="K2" s="7">
+        <v>44090</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(K2,"yyyy-mm-dd")</f>
+        <v>2020-09-16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="K3" s="7">
+        <v>44091</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-09-17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="K4" s="7">
+        <v>44092</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="7">
+        <v>44093</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2020</v>
+      </c>
+      <c r="K6" s="7">
+        <v>44094</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7">
+        <v>43851</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ref="D7:D17" si="1">TEXT(A7,"mm-dd")</f>
+        <v>01-21</v>
+      </c>
+      <c r="K7" s="7">
+        <v>44095</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7">
+        <v>43879</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>02-18</v>
+      </c>
+      <c r="K8" s="7">
+        <v>44096</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7">
+        <v>43906</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>03-16</v>
+      </c>
+      <c r="K9" s="7">
+        <v>44097</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7">
+        <v>43937</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>04-16</v>
+      </c>
+      <c r="K10" s="7">
+        <v>44098</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7">
+        <v>43966</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>05-15</v>
+      </c>
+      <c r="K11" s="7">
+        <v>44099</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7">
+        <v>43997</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>06-15</v>
+      </c>
+      <c r="E12" s="11">
+        <v>54154</v>
+      </c>
+      <c r="K12" s="7">
+        <v>44100</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8">
+        <v>44012</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="13">
+        <v>812.31</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>06-30</v>
+      </c>
+      <c r="E13" s="11">
+        <v>54966.31</v>
+      </c>
+      <c r="K13" s="7">
+        <v>44101</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7">
+        <v>44034</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4750</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>07-22</v>
+      </c>
+      <c r="K14" s="7">
+        <v>44102</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7">
+        <v>44032</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4500</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>07-20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7">
+        <v>44061</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4750</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>08-18</v>
+      </c>
+      <c r="J16" s="13">
+        <v>2098</v>
+      </c>
+      <c r="K16" s="11">
+        <v>17979.0628</v>
+      </c>
+      <c r="L16" s="13">
+        <f>SUM(J16:J21)</f>
+        <v>12588</v>
+      </c>
+      <c r="M16" s="14">
+        <f>K16-L16</f>
+        <v>5391.0627999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7">
+        <v>44090</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="13">
+        <v>4750</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>09-16</v>
+      </c>
+      <c r="J17" s="13">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="1"/>
+      <c r="J18" s="13">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="1"/>
+      <c r="J19" s="13">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="J20" s="13">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="J21" s="13">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>43480</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" ref="D25:D34" si="2">TEXT(A25,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>43511</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>02-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
+        <v>43539</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>03-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
+        <v>43570</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>04-15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>43607</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>05-22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
+        <v>43634</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>06-18</v>
+      </c>
+      <c r="E30" s="11">
+        <v>206815.894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5">
+        <v>43646</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="13">
+        <v>3102.2384099999999</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>06-30</v>
+      </c>
+      <c r="E31" s="11">
+        <v>209918.13200000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07-16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>08-16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1">
+        <v>218932.13200000001</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>08-22</v>
+      </c>
+      <c r="E34" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3">
+        <v>43724</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>TEXT(A35,"mm-dd")</f>
+        <v>09-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3">
+        <v>43753</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>TEXT(A36,"mm-dd")</f>
+        <v>10-15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3">
+        <v>43784</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>TEXT(A37,"mm-dd")</f>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>43815</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>TEXT(A38,"mm-dd")</f>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3">
+        <v>43115</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" ref="D42:D54" si="3">TEXT(A42,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3">
+        <v>43153</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>02-22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3">
+        <v>43179</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>03-20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3">
+        <v>43206</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>04-16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3">
+        <v>43235</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>05-15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3">
+        <v>43266</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>06-15</v>
+      </c>
+      <c r="E47" s="11">
+        <v>152685.60999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5">
+        <v>43281</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="13">
+        <v>2290.28415</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>06-30</v>
+      </c>
+      <c r="E48" s="11">
+        <v>154975.894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3">
+        <v>43297</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>07-16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3">
+        <v>43327</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>08-15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3">
+        <v>43361</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>09-18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3">
+        <v>43388</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>10-15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3">
+        <v>43419</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3">
+        <v>43452</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>12-18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3">
+        <v>42751</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" ref="D58:D70" si="4">TEXT(A58,"mm-dd")</f>
+        <v>01-16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3">
+        <v>42781</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>02-15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3">
+        <v>42809</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>03-15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3">
+        <v>42843</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>04-18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3">
+        <v>42873</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>05-18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3">
+        <v>42901</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>06-15</v>
+      </c>
+      <c r="E63" s="11">
+        <v>106286.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="13">
+        <v>318.86025000000001</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>06-30</v>
+      </c>
+      <c r="E64" s="11">
+        <v>106605.61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3">
+        <v>42934</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>07-18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3">
+        <v>42965</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>08-18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3">
+        <v>42993</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>09-15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3">
+        <v>43026</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>10-18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3">
+        <v>43054</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3">
+        <v>43085</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3">
+        <v>42384</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f t="shared" ref="D74:D86" si="5">TEXT(A74,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3">
+        <v>42415</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>02-15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3">
+        <v>42444</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>03-15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3">
+        <v>42475</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>04-15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3">
+        <v>42508</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>05-18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3">
+        <v>42536</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>06-15</v>
+      </c>
+      <c r="E79" s="11">
+        <v>64285.8923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5">
+        <v>42551</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="13">
+        <v>192.857677</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>06-30</v>
+      </c>
+      <c r="E80" s="11">
+        <v>64478.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3">
+        <v>42566</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>07-15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3">
+        <v>42600</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>08-18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3">
+        <v>42625</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>09-12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3">
+        <v>42655</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10-12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3">
+        <v>42689</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3">
+        <v>42720</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>12-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD25B00C-1367-CB4D-B3E1-6C9467D0779C}">
+  <dimension ref="A1:M86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="11">
+        <v>19800</v>
+      </c>
+      <c r="F2" s="11">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>6360</v>
-      </c>
-      <c r="I2">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="G2" s="11">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2376</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2376</v>
+      </c>
+      <c r="J2" s="13">
+        <v>48925.8923</v>
+      </c>
+      <c r="K2" s="7">
+        <v>44090</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(K2,"yyyy-mm-dd")</f>
+        <v>2020-09-16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="K3" s="7">
+        <v>44091</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-09-17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="K4" s="7">
+        <v>44092</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="7">
+        <v>44093</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="8">
-        <v>43854</v>
+      <c r="K6" s="7">
+        <v>44094</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7">
+        <v>43851</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4512</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>TEXT(A7,"yyyy-mm-dd")</f>
-        <v>2020-01-24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8">
-        <v>43885</v>
+        <f t="shared" ref="D7:D20" si="1">TEXT(A7,"mm-dd")</f>
+        <v>01-21</v>
+      </c>
+      <c r="K7" s="7">
+        <v>44095</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7">
+        <v>43879</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C8" s="13">
+        <v>4512</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" ref="D8:D36" si="0">TEXT(A8,"yyyy-mm-dd")</f>
-        <v>2020-02-24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8">
-        <v>43914</v>
+        <f t="shared" si="1"/>
+        <v>02-18</v>
+      </c>
+      <c r="K8" s="7">
+        <v>44096</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7">
+        <v>43906</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4512</v>
       </c>
       <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>03-16</v>
+      </c>
+      <c r="K9" s="7">
+        <v>44097</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03-24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8">
-        <v>43945</v>
+        <v>2020-09-23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7">
+        <v>43937</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="13">
+        <v>4512</v>
       </c>
       <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>04-16</v>
+      </c>
+      <c r="K10" s="7">
+        <v>44098</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04-24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="8">
-        <v>43975</v>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7">
+        <v>43966</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="13">
+        <v>4512</v>
       </c>
       <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>05-15</v>
+      </c>
+      <c r="K11" s="7">
+        <v>44099</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>2020-05-24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="8">
-        <v>44006</v>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7">
+        <v>43997</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4512</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>TEXT(A12,"yyyy-mm-dd")</f>
-        <v>2020-06-24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <f t="shared" si="1"/>
+        <v>06-15</v>
+      </c>
+      <c r="E12" s="11">
+        <v>54154</v>
+      </c>
+      <c r="K12" s="7">
+        <v>44100</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="8">
-        <v>44036</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>5034</v>
+        <v>44012</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="13">
+        <v>812.31</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>TEXT(A13,"yyyy-mm-dd")</f>
-        <v>2020-07-24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="8">
-        <v>44067</v>
+        <f t="shared" si="1"/>
+        <v>06-30</v>
+      </c>
+      <c r="E13" s="11">
+        <v>54966.31</v>
+      </c>
+      <c r="K13" s="7">
+        <v>44101</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7">
+        <v>44034</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4750</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>TEXT(A14,"yyyy-mm-dd")</f>
-        <v>2020-08-24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="8">
-        <v>44098</v>
+        <f t="shared" si="1"/>
+        <v>07-22</v>
+      </c>
+      <c r="K14" s="7">
+        <v>44102</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7">
+        <v>44032</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>5034</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4500</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>TEXT(A15,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="8">
-        <v>44128</v>
+        <f t="shared" si="1"/>
+        <v>07-20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7">
+        <v>44061</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4750</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>TEXT(A16,"yyyy-mm-dd")</f>
-        <v>2020-10-24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8">
-        <v>44159</v>
+        <f t="shared" si="1"/>
+        <v>08-18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7">
+        <v>44090</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C17" s="13">
+        <v>4750</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>TEXT(A17,"yyyy-mm-dd")</f>
-        <v>2020-11-24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8">
-        <v>44189</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>5034</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>TEXT(A18,"yyyy-mm-dd")</f>
-        <v>2020-12-24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9">
-        <v>44012</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>09-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
+        <v>43480</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" ref="D25:D34" si="2">TEXT(A25,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>43511</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>02-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3">
+        <v>43539</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>03-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3">
+        <v>43570</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>04-15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3">
+        <v>43607</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>05-22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>43634</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>06-18</v>
+      </c>
+      <c r="E30" s="11">
+        <v>206815.894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5">
+        <v>43646</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="13">
+        <v>3102.2384099999999</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>06-30</v>
+      </c>
+      <c r="E31" s="11">
+        <v>209918.13200000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>07-16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>08-16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1">
+        <v>218932.13200000001</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>08-22</v>
+      </c>
+      <c r="E34" s="11">
         <v>10</v>
       </c>
-      <c r="C19" s="6">
-        <v>867</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f>TEXT(A19,"yyyy-mm-dd")</f>
-        <v>2020-06-30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>43489</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>5034</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-01-24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>43520</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>5034</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-02-24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>43548</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>5034</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-03-24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>43579</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>5034</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-04-24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3">
-        <v>43609</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>5034</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-05-24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5">
-        <v>43646</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="6">
-        <v>867</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-06-30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>43640</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>5034</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-06-24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>43670</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>5034</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-07-24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>43701</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>5034</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-08-24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>43732</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>5034</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-09-24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>43762</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>5034</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-10-24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>43823</v>
+        <v>43724</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4512</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>TEXT(A35,"yyyy-mm-dd")</f>
-        <v>2019-12-24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <f>TEXT(A35,"mm-dd")</f>
+        <v>09-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>43793</v>
+        <v>43753</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>5034</v>
+        <v>49</v>
+      </c>
+      <c r="C36" s="13">
+        <v>4512</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>TEXT(A36,"yyyy-mm-dd")</f>
-        <v>2019-11-24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40"/>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1"/>
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1"/>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1"/>
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1"/>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1"/>
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1"/>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1"/>
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1"/>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1"/>
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1"/>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1"/>
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1"/>
-      <c r="B53"/>
+        <f>TEXT(A36,"mm-dd")</f>
+        <v>10-15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3">
+        <v>43784</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>TEXT(A37,"mm-dd")</f>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>43815</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4512</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>TEXT(A38,"mm-dd")</f>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3">
+        <v>43115</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" ref="D42:D54" si="3">TEXT(A42,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3">
+        <v>43153</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>02-22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3">
+        <v>43179</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>03-20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3">
+        <v>43206</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>04-16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3">
+        <v>43235</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>05-15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3">
+        <v>43266</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>06-15</v>
+      </c>
+      <c r="E47" s="11">
+        <v>152685.60999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5">
+        <v>43281</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="13">
+        <v>2290.28415</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>06-30</v>
+      </c>
+      <c r="E48" s="11">
+        <v>154975.894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3">
+        <v>43297</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>07-16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3">
+        <v>43327</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>08-15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3">
+        <v>43361</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>09-18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3">
+        <v>43388</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>10-15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3">
+        <v>43419</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3">
+        <v>43452</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="13">
+        <v>4320</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>12-18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3">
+        <v>42751</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" ref="D58:D70" si="4">TEXT(A58,"mm-dd")</f>
+        <v>01-16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3">
+        <v>42781</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>02-15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3">
+        <v>42809</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>03-15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3">
+        <v>42843</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>04-18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3">
+        <v>42873</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>05-18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3">
+        <v>42901</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>06-15</v>
+      </c>
+      <c r="E63" s="11">
+        <v>106286.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="13">
+        <v>318.86025000000001</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>06-30</v>
+      </c>
+      <c r="E64" s="11">
+        <v>106605.61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3">
+        <v>42934</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>07-18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3">
+        <v>42965</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>08-18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3">
+        <v>42993</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>09-15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3">
+        <v>43026</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>10-18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3">
+        <v>43054</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3">
+        <v>43085</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="13">
+        <v>3840</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3">
+        <v>42384</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f t="shared" ref="D74:D86" si="5">TEXT(A74,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3">
+        <v>42415</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>02-15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3">
+        <v>42444</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>03-15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3">
+        <v>42475</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>04-15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3">
+        <v>42508</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>05-18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3">
+        <v>42536</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="13">
+        <v>2560</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>06-15</v>
+      </c>
+      <c r="E79" s="11">
+        <v>64285.8923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5">
+        <v>42551</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="13">
+        <v>192.857677</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>06-30</v>
+      </c>
+      <c r="E80" s="11">
+        <v>64478.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3">
+        <v>42566</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>07-15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3">
+        <v>42600</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>08-18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3">
+        <v>42625</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>09-12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3">
+        <v>42655</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10-12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3">
+        <v>42689</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3">
+        <v>42720</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="13">
+        <v>3484</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>12-16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/__encodeapk/text_01.xlsx
+++ b/__encodeapk/text_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/others/zfb/code/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B60978A-1ADE-504B-996F-FA7A153CDCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3DB83E-1976-7E4B-B98A-38C919AB9E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="9120" windowWidth="22240" windowHeight="13800" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="6560" yWindow="2880" windowWidth="22240" windowHeight="13800" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="113">
   <si>
     <t>汇缴分配</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -199,12 +205,6 @@
     <t>汇缴分配</t>
   </si>
   <si>
-    <t>提取资金支付</t>
-  </si>
-  <si>
-    <t>提取</t>
-  </si>
-  <si>
     <t>jiben</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -219,18 +219,245 @@
   <si>
     <t>庄旭叶1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝昵称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>收货地址</t>
+  </si>
+  <si>
+    <t>收货手机号</t>
+  </si>
+  <si>
+    <t>淘宝会员账号</t>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄旭叶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 14-26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市石景山区晋元庄路9号北京大学首钢医院</t>
+  </si>
+  <si>
+    <t>tb3394648696</t>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 11-18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 10-20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴款单位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴 11-23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯科技有限公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位登记号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名片号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参保单位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参保区县</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费人员类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗参保人员类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老保险实际缴费年限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗保险实际缴费年限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费基数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>640872194505118000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名Text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯科技有限公司</t>
+  </si>
+  <si>
+    <t>北京市海淀保险基金管理中心</t>
+  </si>
+  <si>
+    <t>外埠农村动力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职职工</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4年7个月</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费区县</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老基数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老单位缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老个人缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业基数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业单位缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业个人缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工伤基数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工伤单位缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工伤个人缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育基数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育单位缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育个人缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗基数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗单位缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗个人缴费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀保险基金管理中心</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +500,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -288,12 +538,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -302,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,7 +610,43 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1352,1320 +1653,3591 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB30BBA1-B9A3-D741-9C3F-84FC00DBD527}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="11" customWidth="1"/>
-    <col min="5" max="10" width="11" style="11"/>
-    <col min="11" max="11" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="11"/>
-    <col min="13" max="13" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="11"/>
+    <col min="1" max="1" width="12" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" style="15" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="15"/>
+    <col min="21" max="21" width="23.1640625" style="15" customWidth="1"/>
+    <col min="22" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="J1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L1"/>
-      <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
+      <c r="N1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="15">
+        <v>19800</v>
+      </c>
+      <c r="F2" s="15">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15">
+        <v>12</v>
+      </c>
+      <c r="H2" s="15">
+        <v>2376</v>
+      </c>
+      <c r="I2" s="15">
+        <v>2376</v>
+      </c>
+      <c r="J2" s="18">
+        <v>48925.8923</v>
+      </c>
+      <c r="K2" s="19">
+        <v>44102</v>
+      </c>
+      <c r="L2" s="15" t="str">
+        <f>TEXT(K2,"yyyy-mm-dd")</f>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="11">
-        <v>19800</v>
-      </c>
-      <c r="F2" s="11">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11">
-        <v>12</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2376</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2376</v>
-      </c>
-      <c r="J2" s="13">
-        <v>48925.8923</v>
-      </c>
-      <c r="K2" s="7">
-        <v>44090</v>
-      </c>
-      <c r="L2" t="str">
-        <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="K3" s="7">
-        <v>44091</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="K4" s="7">
-        <v>44092</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="P2" s="16">
+        <v>15712917692</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="16">
+        <v>15712917692</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="K3" s="19">
+        <v>44103</v>
+      </c>
+      <c r="L3" s="15" t="str">
+        <f t="shared" ref="L3:L5" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-09-29</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="K4" s="19">
+        <v>44104</v>
+      </c>
+      <c r="L4" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="10" t="s">
+        <v>2020-09-30</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="7">
-        <v>44093</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="E5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="19">
+        <v>44105</v>
+      </c>
+      <c r="L5" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="11" t="s">
+        <v>2020-10-01</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="17">
         <v>2020</v>
       </c>
-      <c r="K6" s="7">
-        <v>44094</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="7">
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="19">
         <v>43851</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="18">
         <v>4512</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="21" t="str">
         <f t="shared" ref="D7:D17" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-21</v>
       </c>
-      <c r="K7" s="7">
-        <v>44095</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="7">
+      <c r="E7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="19">
         <v>43879</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="18">
         <v>4512</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="21" t="str">
         <f t="shared" si="1"/>
         <v>02-18</v>
       </c>
-      <c r="K8" s="7">
-        <v>44096</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7">
+      <c r="E8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="19">
         <v>43906</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="18">
         <v>4512</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="21" t="str">
         <f t="shared" si="1"/>
         <v>03-16</v>
       </c>
-      <c r="K9" s="7">
-        <v>44097</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7">
+      <c r="E9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="19">
         <v>43937</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="18">
         <v>4512</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>04-16</v>
       </c>
-      <c r="K10" s="7">
-        <v>44098</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="7">
+      <c r="E10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="19">
         <v>43966</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="18">
         <v>4512</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>05-15</v>
       </c>
-      <c r="K11" s="7">
-        <v>44099</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-25</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="7">
+      <c r="E11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="19">
         <v>43997</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="18">
         <v>4512</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="21" t="str">
         <f t="shared" si="1"/>
         <v>06-15</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="15">
         <v>54154</v>
       </c>
-      <c r="K12" s="7">
-        <v>44100</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="8">
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="22">
         <v>44012</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="18">
         <v>812.31</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>06-30</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="15">
         <v>54966.31</v>
       </c>
-      <c r="K13" s="7">
-        <v>44101</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="7">
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="19">
         <v>44034</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="18">
         <v>4750</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>07-22</v>
       </c>
-      <c r="K14" s="7">
-        <v>44102</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="7">
+      <c r="E14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="19">
         <v>44032</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="18">
         <v>4500</v>
       </c>
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="21" t="str">
         <f t="shared" si="1"/>
         <v>07-20</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="7">
+      <c r="E15" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="19">
         <v>44061</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="18">
         <v>4750</v>
       </c>
-      <c r="D16" s="1" t="str">
+      <c r="D16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>08-18</v>
       </c>
-      <c r="J16" s="13">
-        <v>2098</v>
-      </c>
-      <c r="K16" s="11">
-        <v>17979.0628</v>
-      </c>
-      <c r="L16" s="13">
-        <f>SUM(J16:J21)</f>
-        <v>12588</v>
-      </c>
-      <c r="M16" s="14">
-        <f>K16-L16</f>
-        <v>5391.0627999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="7">
+      <c r="E16" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="19">
         <v>44090</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="18">
         <v>4750</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="D17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>09-16</v>
       </c>
-      <c r="J17" s="13">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="1"/>
-      <c r="J18" s="13">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="1"/>
-      <c r="J19" s="13">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="1"/>
-      <c r="J20" s="13">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="J21" s="13">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="11" t="s">
+      <c r="E17" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B20" s="15">
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3">
+    <row r="21" spans="1:6">
+      <c r="A21" s="20">
         <v>43480</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="18">
         <v>4320</v>
       </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" ref="D25:D34" si="2">TEXT(A25,"mm-dd")</f>
+      <c r="D21" s="21" t="str">
+        <f t="shared" ref="D21:D30" si="2">TEXT(A21,"mm-dd")</f>
         <v>01-15</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3">
+      <c r="E21" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="20">
         <v>43511</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="18">
         <v>4320</v>
       </c>
-      <c r="D26" s="1" t="str">
+      <c r="D22" s="21" t="str">
         <f t="shared" si="2"/>
         <v>02-15</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3">
+      <c r="E22" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="20">
         <v>43539</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="18">
         <v>4320</v>
       </c>
-      <c r="D27" s="1" t="str">
+      <c r="D23" s="21" t="str">
         <f t="shared" si="2"/>
         <v>03-15</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3">
+      <c r="E23" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20">
         <v>43570</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="13">
+      <c r="B24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="18">
         <v>4320</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="D24" s="21" t="str">
         <f t="shared" si="2"/>
         <v>04-15</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="3">
+      <c r="E24" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="20">
         <v>43607</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="B25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="18">
         <v>4320</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D25" s="21" t="str">
         <f t="shared" si="2"/>
         <v>05-22</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="3">
+      <c r="E25" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="20">
         <v>43634</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="13">
+      <c r="B26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="18">
         <v>4320</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D26" s="21" t="str">
         <f t="shared" si="2"/>
         <v>06-18</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="15">
         <v>206815.894</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5">
+    <row r="27" spans="1:6">
+      <c r="A27" s="23">
         <v>43646</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B27" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C27" s="18">
         <v>3102.2384099999999</v>
       </c>
-      <c r="D31" s="1" t="str">
+      <c r="D27" s="21" t="str">
         <f t="shared" si="2"/>
         <v>06-30</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="15">
         <v>209918.13200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="3">
+    <row r="28" spans="1:6">
+      <c r="A28" s="20">
         <v>43662</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="13">
+      <c r="B28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="18">
         <v>4512</v>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="D28" s="21" t="str">
         <f t="shared" si="2"/>
         <v>07-16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3">
+      <c r="E28" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="20">
         <v>43693</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="13">
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="18">
         <v>4512</v>
       </c>
-      <c r="D33" s="1" t="str">
+      <c r="D29" s="21" t="str">
         <f t="shared" si="2"/>
         <v>08-16</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3">
+      <c r="E29" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="20">
         <v>43699</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="21">
         <v>218932.13200000001</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D30" s="21" t="str">
         <f t="shared" si="2"/>
         <v>08-22</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3">
+    <row r="31" spans="1:6">
+      <c r="A31" s="20">
         <v>43724</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="B31" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="18">
         <v>4512</v>
       </c>
-      <c r="D35" s="1" t="str">
-        <f>TEXT(A35,"mm-dd")</f>
+      <c r="D31" s="21" t="str">
+        <f>TEXT(A31,"mm-dd")</f>
         <v>09-16</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3">
+      <c r="E31" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="20">
         <v>43753</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="B32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="18">
         <v>4512</v>
       </c>
-      <c r="D36" s="1" t="str">
-        <f>TEXT(A36,"mm-dd")</f>
+      <c r="D32" s="21" t="str">
+        <f>TEXT(A32,"mm-dd")</f>
         <v>10-15</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3">
+      <c r="E32" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="20">
         <v>43784</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="13">
+      <c r="B33" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="18">
         <v>4512</v>
       </c>
-      <c r="D37" s="1" t="str">
-        <f>TEXT(A37,"mm-dd")</f>
+      <c r="D33" s="21" t="str">
+        <f>TEXT(A33,"mm-dd")</f>
         <v>11-15</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="E33" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="20">
         <v>43815</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="13">
+      <c r="B34" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="18">
         <v>4512</v>
       </c>
-      <c r="D38" s="1" t="str">
-        <f>TEXT(A38,"mm-dd")</f>
+      <c r="D34" s="21" t="str">
+        <f>TEXT(A34,"mm-dd")</f>
         <v>12-16</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="11" t="s">
+      <c r="E34" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B37" s="15">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3">
+    <row r="38" spans="1:6">
+      <c r="A38" s="20">
         <v>43115</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="13">
+      <c r="B38" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="18">
         <v>3840</v>
       </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" ref="D42:D54" si="3">TEXT(A42,"mm-dd")</f>
+      <c r="D38" s="21" t="str">
+        <f t="shared" ref="D38:D50" si="3">TEXT(A38,"mm-dd")</f>
         <v>01-15</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3">
+      <c r="E38" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="20">
         <v>43153</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="13">
+      <c r="B39" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="18">
         <v>3840</v>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D39" s="21" t="str">
         <f t="shared" si="3"/>
         <v>02-22</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3">
+      <c r="E39" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="20">
         <v>43179</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="13">
+      <c r="B40" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="18">
         <v>3840</v>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D40" s="21" t="str">
         <f t="shared" si="3"/>
         <v>03-20</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3">
+      <c r="E40" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="20">
         <v>43206</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="13">
+      <c r="B41" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="18">
         <v>3840</v>
       </c>
-      <c r="D45" s="1" t="str">
+      <c r="D41" s="21" t="str">
         <f t="shared" si="3"/>
         <v>04-16</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3">
+      <c r="E41" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="20">
         <v>43235</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="13">
+      <c r="B42" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="18">
         <v>3840</v>
       </c>
-      <c r="D46" s="1" t="str">
+      <c r="D42" s="21" t="str">
         <f t="shared" si="3"/>
         <v>05-15</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3">
+      <c r="E42" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="20">
         <v>43266</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="13">
+      <c r="B43" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="18">
         <v>3840</v>
       </c>
-      <c r="D47" s="1" t="str">
+      <c r="D43" s="21" t="str">
         <f t="shared" si="3"/>
         <v>06-15</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E43" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="15">
         <v>152685.60999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="5">
+    <row r="44" spans="1:6">
+      <c r="A44" s="23">
         <v>43281</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B44" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C44" s="18">
         <v>2290.28415</v>
       </c>
-      <c r="D48" s="1" t="str">
+      <c r="D44" s="21" t="str">
         <f t="shared" si="3"/>
         <v>06-30</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E44" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="15">
         <v>154975.894</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3">
+    <row r="45" spans="1:6">
+      <c r="A45" s="20">
         <v>43297</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="13">
+      <c r="B45" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="18">
         <v>4320</v>
       </c>
-      <c r="D49" s="1" t="str">
+      <c r="D45" s="21" t="str">
         <f t="shared" si="3"/>
         <v>07-16</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3">
+      <c r="E45" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="20">
         <v>43327</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="13">
+      <c r="B46" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="18">
         <v>4320</v>
       </c>
-      <c r="D50" s="1" t="str">
+      <c r="D46" s="21" t="str">
         <f t="shared" si="3"/>
         <v>08-15</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3">
+      <c r="E46" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="20">
         <v>43361</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="B47" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="18">
         <v>4320</v>
       </c>
-      <c r="D51" s="1" t="str">
+      <c r="D47" s="21" t="str">
         <f t="shared" si="3"/>
         <v>09-18</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="3">
+      <c r="E47" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="20">
         <v>43388</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="13">
+      <c r="B48" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="18">
         <v>4320</v>
       </c>
-      <c r="D52" s="1" t="str">
+      <c r="D48" s="21" t="str">
         <f t="shared" si="3"/>
         <v>10-15</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3">
+      <c r="E48" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="20">
         <v>43419</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="13">
+      <c r="B49" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="18">
         <v>4320</v>
       </c>
-      <c r="D53" s="1" t="str">
+      <c r="D49" s="21" t="str">
         <f t="shared" si="3"/>
         <v>11-15</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3">
+      <c r="E49" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="20">
         <v>43452</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="13">
+      <c r="B50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="18">
         <v>4320</v>
       </c>
-      <c r="D54" s="1" t="str">
+      <c r="D50" s="21" t="str">
         <f t="shared" si="3"/>
         <v>12-18</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1"/>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="11" t="s">
+      <c r="E50" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="21"/>
+      <c r="B51" s="15"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B53" s="15">
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3">
+    <row r="54" spans="1:6">
+      <c r="A54" s="20">
         <v>42751</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="13">
+      <c r="B54" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="18">
         <v>3484</v>
       </c>
-      <c r="D58" s="1" t="str">
-        <f t="shared" ref="D58:D70" si="4">TEXT(A58,"mm-dd")</f>
+      <c r="D54" s="21" t="str">
+        <f t="shared" ref="D54:D66" si="4">TEXT(A54,"mm-dd")</f>
         <v>01-16</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3">
+      <c r="E54" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="20">
         <v>42781</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="13">
+      <c r="B55" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="18">
         <v>3484</v>
       </c>
-      <c r="D59" s="1" t="str">
+      <c r="D55" s="21" t="str">
         <f t="shared" si="4"/>
         <v>02-15</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3">
+      <c r="E55" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="20">
         <v>42809</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="13">
+      <c r="B56" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="18">
         <v>3484</v>
       </c>
-      <c r="D60" s="1" t="str">
+      <c r="D56" s="21" t="str">
         <f t="shared" si="4"/>
         <v>03-15</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3">
+      <c r="E56" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="20">
         <v>42843</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="13">
+      <c r="B57" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="18">
         <v>3484</v>
       </c>
-      <c r="D61" s="1" t="str">
+      <c r="D57" s="21" t="str">
         <f t="shared" si="4"/>
         <v>04-18</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3">
+      <c r="E57" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="20">
         <v>42873</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="13">
+      <c r="B58" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="18">
         <v>3484</v>
       </c>
-      <c r="D62" s="1" t="str">
+      <c r="D58" s="21" t="str">
         <f t="shared" si="4"/>
         <v>05-18</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3">
+      <c r="E58" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="20">
         <v>42901</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="13">
+      <c r="B59" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="18">
         <v>3484</v>
       </c>
-      <c r="D63" s="1" t="str">
+      <c r="D59" s="21" t="str">
         <f t="shared" si="4"/>
         <v>06-15</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E59" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="15">
         <v>106286.75</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="5">
+    <row r="60" spans="1:6">
+      <c r="A60" s="23">
         <v>42916</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B60" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C60" s="18">
         <v>318.86025000000001</v>
       </c>
-      <c r="D64" s="1" t="str">
+      <c r="D60" s="21" t="str">
         <f t="shared" si="4"/>
         <v>06-30</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E60" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="15">
         <v>106605.61</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="3">
+    <row r="61" spans="1:6">
+      <c r="A61" s="20">
         <v>42934</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="13">
+      <c r="B61" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="18">
         <v>3840</v>
       </c>
-      <c r="D65" s="1" t="str">
+      <c r="D61" s="21" t="str">
         <f t="shared" si="4"/>
         <v>07-18</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="3">
+      <c r="E61" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="20">
         <v>42965</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="13">
+      <c r="B62" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="18">
         <v>3840</v>
       </c>
-      <c r="D66" s="1" t="str">
+      <c r="D62" s="21" t="str">
         <f t="shared" si="4"/>
         <v>08-18</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="3">
+      <c r="E62" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="20">
         <v>42993</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="13">
+      <c r="B63" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="18">
         <v>3840</v>
       </c>
-      <c r="D67" s="1" t="str">
+      <c r="D63" s="21" t="str">
         <f t="shared" si="4"/>
         <v>09-15</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="3">
+      <c r="E63" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="20">
         <v>43026</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="13">
+      <c r="B64" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="18">
         <v>3840</v>
       </c>
-      <c r="D68" s="1" t="str">
+      <c r="D64" s="21" t="str">
         <f t="shared" si="4"/>
         <v>10-18</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="3">
+      <c r="E64" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="20">
         <v>43054</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="13">
+      <c r="B65" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="18">
         <v>3840</v>
       </c>
-      <c r="D69" s="1" t="str">
+      <c r="D65" s="21" t="str">
         <f t="shared" si="4"/>
         <v>11-15</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="3">
+      <c r="E65" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="20">
         <v>43085</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="13">
+      <c r="B66" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="18">
         <v>3840</v>
       </c>
-      <c r="D70" s="1" t="str">
+      <c r="D66" s="21" t="str">
         <f t="shared" si="4"/>
         <v>12-16</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="11" t="s">
+      <c r="E66" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B69" s="15">
         <v>2016</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="3">
+    <row r="70" spans="1:6">
+      <c r="A70" s="20">
         <v>42384</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="13">
+      <c r="B70" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="18">
         <v>2560</v>
       </c>
-      <c r="D74" s="1" t="str">
-        <f t="shared" ref="D74:D86" si="5">TEXT(A74,"mm-dd")</f>
+      <c r="D70" s="21" t="str">
+        <f t="shared" ref="D70:D82" si="5">TEXT(A70,"mm-dd")</f>
         <v>01-15</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="3">
+      <c r="E70" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="20">
         <v>42415</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="13">
+      <c r="B71" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="18">
         <v>2560</v>
       </c>
-      <c r="D75" s="1" t="str">
+      <c r="D71" s="21" t="str">
         <f t="shared" si="5"/>
         <v>02-15</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="3">
+      <c r="E71" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="20">
         <v>42444</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="13">
+      <c r="B72" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="18">
         <v>2560</v>
       </c>
-      <c r="D76" s="1" t="str">
+      <c r="D72" s="21" t="str">
         <f t="shared" si="5"/>
         <v>03-15</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="3">
+      <c r="E72" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="20">
         <v>42475</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="13">
+      <c r="B73" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="18">
         <v>2560</v>
       </c>
-      <c r="D77" s="1" t="str">
+      <c r="D73" s="21" t="str">
         <f t="shared" si="5"/>
         <v>04-15</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="3">
+      <c r="E73" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="20">
         <v>42508</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="13">
+      <c r="B74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="18">
         <v>2560</v>
       </c>
-      <c r="D78" s="1" t="str">
+      <c r="D74" s="21" t="str">
         <f t="shared" si="5"/>
         <v>05-18</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="3">
+      <c r="E74" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="20">
         <v>42536</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="13">
+      <c r="B75" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="18">
         <v>2560</v>
       </c>
-      <c r="D79" s="1" t="str">
+      <c r="D75" s="21" t="str">
         <f t="shared" si="5"/>
         <v>06-15</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E75" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="15">
         <v>64285.8923</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="5">
+    <row r="76" spans="1:6">
+      <c r="A76" s="23">
         <v>42551</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B76" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C76" s="18">
         <v>192.857677</v>
       </c>
-      <c r="D80" s="1" t="str">
+      <c r="D76" s="21" t="str">
         <f t="shared" si="5"/>
         <v>06-30</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E76" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="15">
         <v>64478.75</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="3">
+    <row r="77" spans="1:6">
+      <c r="A77" s="20">
         <v>42566</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="13">
+      <c r="B77" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="18">
         <v>3484</v>
       </c>
-      <c r="D81" s="1" t="str">
+      <c r="D77" s="21" t="str">
         <f t="shared" si="5"/>
         <v>07-15</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="3">
+      <c r="E77" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="20">
         <v>42600</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="13">
+      <c r="B78" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="18">
         <v>3484</v>
       </c>
-      <c r="D82" s="1" t="str">
+      <c r="D78" s="21" t="str">
         <f t="shared" si="5"/>
         <v>08-18</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="3">
+      <c r="E78" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="20">
         <v>42625</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="13">
+      <c r="B79" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="18">
         <v>3484</v>
       </c>
-      <c r="D83" s="1" t="str">
+      <c r="D79" s="21" t="str">
         <f t="shared" si="5"/>
         <v>09-12</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="3">
+      <c r="E79" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="20">
         <v>42655</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="13">
+      <c r="B80" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="18">
         <v>3484</v>
       </c>
-      <c r="D84" s="1" t="str">
+      <c r="D80" s="21" t="str">
         <f t="shared" si="5"/>
         <v>10-12</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="3">
+      <c r="E80" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" s="20">
         <v>42689</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="13">
+      <c r="B81" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="18">
         <v>3484</v>
       </c>
-      <c r="D85" s="1" t="str">
+      <c r="D81" s="21" t="str">
         <f t="shared" si="5"/>
         <v>11-15</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="3">
+      <c r="E81" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="20">
         <v>42720</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="13">
+      <c r="B82" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="18">
         <v>3484</v>
       </c>
-      <c r="D86" s="1" t="str">
+      <c r="D82" s="21" t="str">
         <f t="shared" si="5"/>
         <v>12-16</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L88" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="17">
+        <v>2121</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" s="17">
+        <v>3231123</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L89" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M89" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L92" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M92" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N92" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O92" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P92" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q92" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="R92" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="S92" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T92" s="14"/>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="19">
+        <v>43851</v>
+      </c>
+      <c r="B94" s="21" t="str">
+        <f>TEXT(A94,"yyyy-mm")</f>
+        <v>2020-01</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="18">
+        <v>30000</v>
+      </c>
+      <c r="F94" s="21">
+        <v>3233</v>
+      </c>
+      <c r="G94" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H94" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I94" s="21">
+        <v>144</v>
+      </c>
+      <c r="J94" s="15">
+        <v>0</v>
+      </c>
+      <c r="K94" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L94" s="21">
+        <v>50</v>
+      </c>
+      <c r="M94" s="15">
+        <v>0</v>
+      </c>
+      <c r="N94" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O94" s="21">
+        <v>0</v>
+      </c>
+      <c r="P94" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R94" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S94" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" s="19">
+        <v>43879</v>
+      </c>
+      <c r="B95" s="21" t="str">
+        <f t="shared" ref="B95:B105" si="6">TEXT(A95,"yyyy-mm")</f>
+        <v>2020-02</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" s="18">
+        <v>30001</v>
+      </c>
+      <c r="F95" s="21">
+        <v>3234</v>
+      </c>
+      <c r="G95" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H95" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I95" s="21">
+        <v>144</v>
+      </c>
+      <c r="J95" s="15">
+        <v>0</v>
+      </c>
+      <c r="K95" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L95" s="21">
+        <v>50</v>
+      </c>
+      <c r="M95" s="15">
+        <v>0</v>
+      </c>
+      <c r="N95" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O95" s="21">
+        <v>0</v>
+      </c>
+      <c r="P95" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R95" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S95" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="19">
+        <v>43906</v>
+      </c>
+      <c r="B96" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-03</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" s="18">
+        <v>30002</v>
+      </c>
+      <c r="F96" s="21">
+        <v>3235</v>
+      </c>
+      <c r="G96" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H96" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I96" s="21">
+        <v>144</v>
+      </c>
+      <c r="J96" s="15">
+        <v>0</v>
+      </c>
+      <c r="K96" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L96" s="21">
+        <v>50</v>
+      </c>
+      <c r="M96" s="15">
+        <v>0</v>
+      </c>
+      <c r="N96" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O96" s="21">
+        <v>0</v>
+      </c>
+      <c r="P96" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R96" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S96" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="19">
+        <v>43937</v>
+      </c>
+      <c r="B97" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-04</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" s="18">
+        <v>30003</v>
+      </c>
+      <c r="F97" s="21">
+        <v>3236</v>
+      </c>
+      <c r="G97" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H97" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I97" s="21">
+        <v>144</v>
+      </c>
+      <c r="J97" s="15">
+        <v>0</v>
+      </c>
+      <c r="K97" s="18"/>
+      <c r="L97" s="21"/>
+      <c r="N97" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O97" s="21">
+        <v>0</v>
+      </c>
+      <c r="P97" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R97" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S97" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="19">
+        <v>43966</v>
+      </c>
+      <c r="B98" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-05</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="18">
+        <v>30004</v>
+      </c>
+      <c r="F98" s="21">
+        <v>3237</v>
+      </c>
+      <c r="G98" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H98" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I98" s="21">
+        <v>144</v>
+      </c>
+      <c r="J98" s="15">
+        <v>0</v>
+      </c>
+      <c r="K98" s="18"/>
+      <c r="L98" s="21"/>
+      <c r="N98" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O98" s="21">
+        <v>0</v>
+      </c>
+      <c r="P98" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R98" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S98" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="19">
+        <v>43997</v>
+      </c>
+      <c r="B99" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-06</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="18">
+        <v>30005</v>
+      </c>
+      <c r="F99" s="21">
+        <v>3238</v>
+      </c>
+      <c r="G99" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H99" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I99" s="21">
+        <v>144</v>
+      </c>
+      <c r="J99" s="15">
+        <v>0</v>
+      </c>
+      <c r="K99" s="18"/>
+      <c r="L99" s="21"/>
+      <c r="N99" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O99" s="21">
+        <v>0</v>
+      </c>
+      <c r="P99" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R99" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S99" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="19">
+        <v>44032</v>
+      </c>
+      <c r="B100" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-07</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100" s="18">
+        <v>30006</v>
+      </c>
+      <c r="F100" s="21">
+        <v>3239</v>
+      </c>
+      <c r="G100" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H100" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I100" s="21">
+        <v>144</v>
+      </c>
+      <c r="J100" s="15">
+        <v>0</v>
+      </c>
+      <c r="K100" s="18"/>
+      <c r="L100" s="21"/>
+      <c r="N100" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O100" s="21">
+        <v>0</v>
+      </c>
+      <c r="P100" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R100" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S100" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="19">
+        <v>44061</v>
+      </c>
+      <c r="B101" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-08</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E101" s="18">
+        <v>30007</v>
+      </c>
+      <c r="F101" s="21">
+        <v>3240</v>
+      </c>
+      <c r="G101" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H101" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I101" s="21">
+        <v>144</v>
+      </c>
+      <c r="J101" s="15">
+        <v>0</v>
+      </c>
+      <c r="K101" s="18"/>
+      <c r="L101" s="21"/>
+      <c r="N101" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O101" s="21">
+        <v>0</v>
+      </c>
+      <c r="P101" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R101" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S101" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="19">
+        <v>44090</v>
+      </c>
+      <c r="B102" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-09</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E102" s="18">
+        <v>30008</v>
+      </c>
+      <c r="F102" s="21">
+        <v>3241</v>
+      </c>
+      <c r="G102" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H102" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I102" s="21">
+        <v>144</v>
+      </c>
+      <c r="J102" s="15">
+        <v>0</v>
+      </c>
+      <c r="K102" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L102" s="21">
+        <v>50</v>
+      </c>
+      <c r="M102" s="15">
+        <v>0</v>
+      </c>
+      <c r="N102" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O102" s="21">
+        <v>0</v>
+      </c>
+      <c r="P102" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R102" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S102" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="19">
+        <v>44120</v>
+      </c>
+      <c r="B103" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-10</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="18">
+        <v>30009</v>
+      </c>
+      <c r="F103" s="21">
+        <v>3242</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H103" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I103" s="21">
+        <v>144</v>
+      </c>
+      <c r="J103" s="15">
+        <v>0</v>
+      </c>
+      <c r="K103" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L103" s="21">
+        <v>50</v>
+      </c>
+      <c r="M103" s="15">
+        <v>0</v>
+      </c>
+      <c r="N103" s="18"/>
+      <c r="O103" s="21"/>
+      <c r="Q103" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R103" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S103" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="19">
+        <v>44151</v>
+      </c>
+      <c r="B104" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-11</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="18">
+        <v>30010</v>
+      </c>
+      <c r="F104" s="21">
+        <v>3243</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H104" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I104" s="21">
+        <v>144</v>
+      </c>
+      <c r="J104" s="15">
+        <v>0</v>
+      </c>
+      <c r="K104" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L104" s="21">
+        <v>50</v>
+      </c>
+      <c r="M104" s="15">
+        <v>0</v>
+      </c>
+      <c r="N104" s="18"/>
+      <c r="O104" s="21"/>
+      <c r="Q104" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R104" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S104" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="19">
+        <v>44181</v>
+      </c>
+      <c r="B105" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-12</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="18">
+        <v>30011</v>
+      </c>
+      <c r="F105" s="21">
+        <v>3244</v>
+      </c>
+      <c r="G105" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H105" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I105" s="21">
+        <v>144</v>
+      </c>
+      <c r="J105" s="15">
+        <v>0</v>
+      </c>
+      <c r="K105" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L105" s="21">
+        <v>50</v>
+      </c>
+      <c r="M105" s="15">
+        <v>0</v>
+      </c>
+      <c r="N105" s="18"/>
+      <c r="O105" s="21"/>
+      <c r="Q105" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R105" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S105" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="19">
+        <v>43486</v>
+      </c>
+      <c r="B109" s="21" t="str">
+        <f>TEXT(A109,"yyyy-mm")</f>
+        <v>2019-01</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109" s="18">
+        <v>20000</v>
+      </c>
+      <c r="F109" s="21">
+        <v>3233</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H109" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I109" s="21">
+        <v>144</v>
+      </c>
+      <c r="J109" s="15">
+        <v>0</v>
+      </c>
+      <c r="K109" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L109" s="21">
+        <v>50</v>
+      </c>
+      <c r="M109" s="15">
+        <v>0</v>
+      </c>
+      <c r="N109" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O109" s="21">
+        <v>0</v>
+      </c>
+      <c r="P109" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R109" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S109" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="19">
+        <v>43517</v>
+      </c>
+      <c r="B110" s="21" t="str">
+        <f t="shared" ref="B110:B120" si="7">TEXT(A110,"yyyy-mm")</f>
+        <v>2019-02</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E110" s="18">
+        <v>20001</v>
+      </c>
+      <c r="F110" s="21">
+        <v>3234</v>
+      </c>
+      <c r="G110" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H110" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I110" s="21">
+        <v>144</v>
+      </c>
+      <c r="J110" s="15">
+        <v>0</v>
+      </c>
+      <c r="K110" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L110" s="21">
+        <v>50</v>
+      </c>
+      <c r="M110" s="15">
+        <v>0</v>
+      </c>
+      <c r="N110" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O110" s="21">
+        <v>0</v>
+      </c>
+      <c r="P110" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R110" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S110" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="19">
+        <v>43545</v>
+      </c>
+      <c r="B111" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-03</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="18">
+        <v>20002</v>
+      </c>
+      <c r="F111" s="21">
+        <v>3235</v>
+      </c>
+      <c r="G111" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H111" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I111" s="21">
+        <v>144</v>
+      </c>
+      <c r="J111" s="15">
+        <v>0</v>
+      </c>
+      <c r="K111" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L111" s="21">
+        <v>50</v>
+      </c>
+      <c r="M111" s="15">
+        <v>0</v>
+      </c>
+      <c r="N111" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O111" s="21">
+        <v>0</v>
+      </c>
+      <c r="P111" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R111" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S111" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="19">
+        <v>43576</v>
+      </c>
+      <c r="B112" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-04</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112" s="18">
+        <v>20003</v>
+      </c>
+      <c r="F112" s="21">
+        <v>3236</v>
+      </c>
+      <c r="G112" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H112" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I112" s="21">
+        <v>144</v>
+      </c>
+      <c r="J112" s="15">
+        <v>0</v>
+      </c>
+      <c r="K112" s="18"/>
+      <c r="L112" s="21"/>
+      <c r="N112" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O112" s="21">
+        <v>0</v>
+      </c>
+      <c r="P112" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R112" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S112" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="19">
+        <v>43606</v>
+      </c>
+      <c r="B113" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-05</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E113" s="18">
+        <v>20004</v>
+      </c>
+      <c r="F113" s="21">
+        <v>3237</v>
+      </c>
+      <c r="G113" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H113" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I113" s="21">
+        <v>144</v>
+      </c>
+      <c r="J113" s="15">
+        <v>0</v>
+      </c>
+      <c r="K113" s="18"/>
+      <c r="L113" s="21"/>
+      <c r="N113" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O113" s="21">
+        <v>0</v>
+      </c>
+      <c r="P113" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R113" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S113" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="19">
+        <v>43637</v>
+      </c>
+      <c r="B114" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-06</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E114" s="18">
+        <v>20005</v>
+      </c>
+      <c r="F114" s="21">
+        <v>3238</v>
+      </c>
+      <c r="G114" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H114" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I114" s="21">
+        <v>144</v>
+      </c>
+      <c r="J114" s="15">
+        <v>0</v>
+      </c>
+      <c r="K114" s="18"/>
+      <c r="L114" s="21"/>
+      <c r="N114" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O114" s="21">
+        <v>0</v>
+      </c>
+      <c r="P114" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R114" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S114" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="19">
+        <v>43667</v>
+      </c>
+      <c r="B115" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-07</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E115" s="18">
+        <v>20006</v>
+      </c>
+      <c r="F115" s="21">
+        <v>3239</v>
+      </c>
+      <c r="G115" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H115" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I115" s="21">
+        <v>144</v>
+      </c>
+      <c r="J115" s="15">
+        <v>0</v>
+      </c>
+      <c r="K115" s="18"/>
+      <c r="L115" s="21"/>
+      <c r="N115" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O115" s="21">
+        <v>0</v>
+      </c>
+      <c r="P115" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R115" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S115" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="19">
+        <v>43698</v>
+      </c>
+      <c r="B116" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-08</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E116" s="18">
+        <v>20007</v>
+      </c>
+      <c r="F116" s="21">
+        <v>3240</v>
+      </c>
+      <c r="G116" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H116" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I116" s="21">
+        <v>144</v>
+      </c>
+      <c r="J116" s="15">
+        <v>0</v>
+      </c>
+      <c r="K116" s="18"/>
+      <c r="L116" s="21"/>
+      <c r="N116" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O116" s="21">
+        <v>0</v>
+      </c>
+      <c r="P116" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R116" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S116" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="19">
+        <v>43729</v>
+      </c>
+      <c r="B117" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-09</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E117" s="18">
+        <v>20008</v>
+      </c>
+      <c r="F117" s="21">
+        <v>3241</v>
+      </c>
+      <c r="G117" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H117" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I117" s="21">
+        <v>144</v>
+      </c>
+      <c r="J117" s="15">
+        <v>0</v>
+      </c>
+      <c r="K117" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L117" s="21">
+        <v>50</v>
+      </c>
+      <c r="M117" s="15">
+        <v>0</v>
+      </c>
+      <c r="N117" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O117" s="21">
+        <v>0</v>
+      </c>
+      <c r="P117" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R117" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S117" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="19">
+        <v>43759</v>
+      </c>
+      <c r="B118" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-10</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E118" s="18">
+        <v>20009</v>
+      </c>
+      <c r="F118" s="21">
+        <v>3242</v>
+      </c>
+      <c r="G118" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H118" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I118" s="21">
+        <v>144</v>
+      </c>
+      <c r="J118" s="15">
+        <v>0</v>
+      </c>
+      <c r="K118" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L118" s="21">
+        <v>50</v>
+      </c>
+      <c r="M118" s="15">
+        <v>0</v>
+      </c>
+      <c r="N118" s="18"/>
+      <c r="O118" s="21"/>
+      <c r="Q118" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R118" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S118" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="19">
+        <v>43790</v>
+      </c>
+      <c r="B119" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-11</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E119" s="18">
+        <v>20010</v>
+      </c>
+      <c r="F119" s="21">
+        <v>3243</v>
+      </c>
+      <c r="G119" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H119" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I119" s="21">
+        <v>144</v>
+      </c>
+      <c r="J119" s="15">
+        <v>0</v>
+      </c>
+      <c r="K119" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L119" s="21">
+        <v>50</v>
+      </c>
+      <c r="M119" s="15">
+        <v>0</v>
+      </c>
+      <c r="N119" s="18"/>
+      <c r="O119" s="21"/>
+      <c r="Q119" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R119" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S119" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="19">
+        <v>43820</v>
+      </c>
+      <c r="B120" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-12</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" s="18">
+        <v>20011</v>
+      </c>
+      <c r="F120" s="21">
+        <v>3244</v>
+      </c>
+      <c r="G120" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H120" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I120" s="21">
+        <v>144</v>
+      </c>
+      <c r="J120" s="15">
+        <v>0</v>
+      </c>
+      <c r="K120" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L120" s="21">
+        <v>50</v>
+      </c>
+      <c r="M120" s="15">
+        <v>0</v>
+      </c>
+      <c r="N120" s="18"/>
+      <c r="O120" s="21"/>
+      <c r="Q120" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R120" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S120" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="19">
+        <v>43121</v>
+      </c>
+      <c r="B124" s="21" t="str">
+        <f>TEXT(A124,"yyyy-mm")</f>
+        <v>2018-01</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E124" s="18">
+        <v>18000</v>
+      </c>
+      <c r="F124" s="21">
+        <v>3233</v>
+      </c>
+      <c r="G124" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H124" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I124" s="21">
+        <v>144</v>
+      </c>
+      <c r="J124" s="15">
+        <v>0</v>
+      </c>
+      <c r="K124" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L124" s="21">
+        <v>50</v>
+      </c>
+      <c r="M124" s="15">
+        <v>0</v>
+      </c>
+      <c r="N124" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O124" s="21">
+        <v>0</v>
+      </c>
+      <c r="P124" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R124" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S124" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="19">
+        <v>43152</v>
+      </c>
+      <c r="B125" s="21" t="str">
+        <f t="shared" ref="B125:B135" si="8">TEXT(A125,"yyyy-mm")</f>
+        <v>2018-02</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E125" s="18">
+        <v>18001</v>
+      </c>
+      <c r="F125" s="21">
+        <v>3234</v>
+      </c>
+      <c r="G125" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H125" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I125" s="21">
+        <v>144</v>
+      </c>
+      <c r="J125" s="15">
+        <v>0</v>
+      </c>
+      <c r="K125" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L125" s="21">
+        <v>50</v>
+      </c>
+      <c r="M125" s="15">
+        <v>0</v>
+      </c>
+      <c r="N125" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O125" s="21">
+        <v>0</v>
+      </c>
+      <c r="P125" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R125" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S125" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="19">
+        <v>43180</v>
+      </c>
+      <c r="B126" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-03</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E126" s="18">
+        <v>18002</v>
+      </c>
+      <c r="F126" s="21">
+        <v>3235</v>
+      </c>
+      <c r="G126" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H126" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I126" s="21">
+        <v>144</v>
+      </c>
+      <c r="J126" s="15">
+        <v>0</v>
+      </c>
+      <c r="K126" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L126" s="21">
+        <v>50</v>
+      </c>
+      <c r="M126" s="15">
+        <v>0</v>
+      </c>
+      <c r="N126" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O126" s="21">
+        <v>0</v>
+      </c>
+      <c r="P126" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R126" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S126" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="19">
+        <v>43211</v>
+      </c>
+      <c r="B127" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-04</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="18">
+        <v>18003</v>
+      </c>
+      <c r="F127" s="21">
+        <v>3236</v>
+      </c>
+      <c r="G127" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H127" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I127" s="21">
+        <v>144</v>
+      </c>
+      <c r="J127" s="15">
+        <v>0</v>
+      </c>
+      <c r="K127" s="18"/>
+      <c r="L127" s="21"/>
+      <c r="N127" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O127" s="21">
+        <v>0</v>
+      </c>
+      <c r="P127" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R127" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S127" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="19">
+        <v>43241</v>
+      </c>
+      <c r="B128" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-05</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" s="18">
+        <v>18004</v>
+      </c>
+      <c r="F128" s="21">
+        <v>3237</v>
+      </c>
+      <c r="G128" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H128" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I128" s="21">
+        <v>144</v>
+      </c>
+      <c r="J128" s="15">
+        <v>0</v>
+      </c>
+      <c r="K128" s="18"/>
+      <c r="L128" s="21"/>
+      <c r="N128" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O128" s="21">
+        <v>0</v>
+      </c>
+      <c r="P128" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R128" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S128" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="19">
+        <v>43272</v>
+      </c>
+      <c r="B129" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-06</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E129" s="18">
+        <v>18005</v>
+      </c>
+      <c r="F129" s="21">
+        <v>3238</v>
+      </c>
+      <c r="G129" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H129" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I129" s="21">
+        <v>144</v>
+      </c>
+      <c r="J129" s="15">
+        <v>0</v>
+      </c>
+      <c r="K129" s="18"/>
+      <c r="L129" s="21"/>
+      <c r="N129" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O129" s="21">
+        <v>0</v>
+      </c>
+      <c r="P129" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R129" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S129" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="19">
+        <v>43302</v>
+      </c>
+      <c r="B130" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-07</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E130" s="18">
+        <v>18006</v>
+      </c>
+      <c r="F130" s="21">
+        <v>3239</v>
+      </c>
+      <c r="G130" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H130" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I130" s="21">
+        <v>144</v>
+      </c>
+      <c r="J130" s="15">
+        <v>0</v>
+      </c>
+      <c r="K130" s="18"/>
+      <c r="L130" s="21"/>
+      <c r="N130" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O130" s="21">
+        <v>0</v>
+      </c>
+      <c r="P130" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R130" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S130" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="19">
+        <v>43333</v>
+      </c>
+      <c r="B131" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-08</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" s="18">
+        <v>18007</v>
+      </c>
+      <c r="F131" s="21">
+        <v>3240</v>
+      </c>
+      <c r="G131" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H131" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I131" s="21">
+        <v>144</v>
+      </c>
+      <c r="J131" s="15">
+        <v>0</v>
+      </c>
+      <c r="K131" s="18"/>
+      <c r="L131" s="21"/>
+      <c r="N131" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O131" s="21">
+        <v>0</v>
+      </c>
+      <c r="P131" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R131" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S131" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="19">
+        <v>43364</v>
+      </c>
+      <c r="B132" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-09</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" s="18">
+        <v>18008</v>
+      </c>
+      <c r="F132" s="21">
+        <v>3241</v>
+      </c>
+      <c r="G132" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H132" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I132" s="21">
+        <v>144</v>
+      </c>
+      <c r="J132" s="15">
+        <v>0</v>
+      </c>
+      <c r="K132" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L132" s="21">
+        <v>50</v>
+      </c>
+      <c r="M132" s="15">
+        <v>0</v>
+      </c>
+      <c r="N132" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O132" s="21">
+        <v>0</v>
+      </c>
+      <c r="P132" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R132" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S132" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="19">
+        <v>43394</v>
+      </c>
+      <c r="B133" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-10</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E133" s="18">
+        <v>18009</v>
+      </c>
+      <c r="F133" s="21">
+        <v>3242</v>
+      </c>
+      <c r="G133" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H133" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I133" s="21">
+        <v>144</v>
+      </c>
+      <c r="J133" s="15">
+        <v>0</v>
+      </c>
+      <c r="K133" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L133" s="21">
+        <v>50</v>
+      </c>
+      <c r="M133" s="15">
+        <v>0</v>
+      </c>
+      <c r="N133" s="18"/>
+      <c r="O133" s="21"/>
+      <c r="Q133" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R133" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S133" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="19">
+        <v>43425</v>
+      </c>
+      <c r="B134" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-11</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E134" s="18">
+        <v>18010</v>
+      </c>
+      <c r="F134" s="21">
+        <v>3243</v>
+      </c>
+      <c r="G134" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H134" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I134" s="21">
+        <v>144</v>
+      </c>
+      <c r="J134" s="15">
+        <v>0</v>
+      </c>
+      <c r="K134" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L134" s="21">
+        <v>50</v>
+      </c>
+      <c r="M134" s="15">
+        <v>0</v>
+      </c>
+      <c r="N134" s="18"/>
+      <c r="O134" s="21"/>
+      <c r="Q134" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R134" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S134" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="19">
+        <v>43455</v>
+      </c>
+      <c r="B135" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-12</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E135" s="18">
+        <v>18011</v>
+      </c>
+      <c r="F135" s="21">
+        <v>3244</v>
+      </c>
+      <c r="G135" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H135" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I135" s="21">
+        <v>144</v>
+      </c>
+      <c r="J135" s="15">
+        <v>0</v>
+      </c>
+      <c r="K135" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L135" s="21">
+        <v>50</v>
+      </c>
+      <c r="M135" s="15">
+        <v>0</v>
+      </c>
+      <c r="N135" s="18"/>
+      <c r="O135" s="21"/>
+      <c r="Q135" s="25">
+        <v>30000</v>
+      </c>
+      <c r="R135" s="21">
+        <v>2300</v>
+      </c>
+      <c r="S135" s="26">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +5292,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -2730,7 +5302,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>43</v>
@@ -2767,7 +5339,7 @@
         <v>2020-09-16</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2779,7 +5351,7 @@
         <v>2020-09-17</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2791,7 +5363,7 @@
         <v>2020-09-18</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2809,7 +5381,7 @@
         <v>2020-09-19</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2827,7 +5399,7 @@
         <v>2020-09-20</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2841,7 +5413,7 @@
         <v>4512</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" ref="D7:D20" si="1">TEXT(A7,"mm-dd")</f>
+        <f t="shared" ref="D7:D17" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-21</v>
       </c>
       <c r="K7" s="7">
@@ -2852,7 +5424,7 @@
         <v>2020-09-21</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2877,7 +5449,7 @@
         <v>2020-09-22</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2902,7 +5474,7 @@
         <v>2020-09-23</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2927,7 +5499,7 @@
         <v>2020-09-24</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2952,7 +5524,7 @@
         <v>2020-09-25</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2980,7 +5552,7 @@
         <v>2020-09-26</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3008,7 +5580,7 @@
         <v>2020-09-27</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3033,7 +5605,7 @@
         <v>2020-09-28</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3041,7 +5613,7 @@
         <v>44032</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="13">
         <v>4500</v>
@@ -3253,7 +5825,7 @@
         <v>43699</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1">
         <v>218932.13200000001</v>

--- a/__encodeapk/text_01.xlsx
+++ b/__encodeapk/text_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3DB83E-1976-7E4B-B98A-38C919AB9E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA344585-9E8C-7F4C-9384-AD448417537C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="2880" windowWidth="22240" windowHeight="13800" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>多云 14-26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>北方人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -267,22 +263,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>多云 11-18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多云 10-20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>缴款单位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>晴 11-23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯科技有限公司</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -447,6 +431,20 @@
   <si>
     <t>2018</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 不限行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 限行 0/1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 限行 0/2</t>
+  </si>
+  <si>
+    <t>多云 限行 0/3</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1654,7 @@
   <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1671,7 +1669,8 @@
     <col min="9" max="9" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="15" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.1640625" style="15" bestFit="1" customWidth="1"/>
@@ -1778,10 +1777,10 @@
         <v>2020-09-28</v>
       </c>
       <c r="M2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>42</v>
@@ -1790,16 +1789,16 @@
         <v>15712917692</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R2" s="16">
         <v>15712917692</v>
       </c>
       <c r="S2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1811,7 +1810,7 @@
         <v>2020-09-29</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1823,7 +1822,7 @@
         <v>2020-09-30</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1834,7 +1833,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K5" s="19">
         <v>44105</v>
@@ -1844,7 +1843,7 @@
         <v>2020-10-01</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1871,7 +1870,7 @@
         <v>01-21</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -1890,7 +1889,7 @@
         <v>02-18</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K8" s="19"/>
     </row>
@@ -1909,7 +1908,7 @@
         <v>03-16</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -1928,7 +1927,7 @@
         <v>04-16</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -1947,7 +1946,7 @@
         <v>05-15</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -1966,7 +1965,7 @@
         <v>06-15</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="15">
         <v>54154</v>
@@ -1988,7 +1987,7 @@
         <v>06-30</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F13" s="15">
         <v>54966.31</v>
@@ -2010,7 +2009,7 @@
         <v>07-22</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -2029,7 +2028,7 @@
         <v>07-20</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2047,7 +2046,7 @@
         <v>08-18</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2065,7 +2064,7 @@
         <v>09-16</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2091,7 +2090,7 @@
         <v>01-15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2109,7 +2108,7 @@
         <v>02-15</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2127,7 +2126,7 @@
         <v>03-15</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2145,7 +2144,7 @@
         <v>04-15</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2163,7 +2162,7 @@
         <v>05-22</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2181,7 +2180,7 @@
         <v>06-18</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F26" s="15">
         <v>206815.894</v>
@@ -2202,7 +2201,7 @@
         <v>06-30</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F27" s="15">
         <v>209918.13200000001</v>
@@ -2223,7 +2222,7 @@
         <v>07-16</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2241,7 +2240,7 @@
         <v>08-16</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2259,7 +2258,7 @@
         <v>08-22</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F30" s="15">
         <v>10</v>
@@ -2280,7 +2279,7 @@
         <v>09-16</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2298,7 +2297,7 @@
         <v>10-15</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2316,7 +2315,7 @@
         <v>11-15</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2334,7 +2333,7 @@
         <v>12-16</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2360,7 +2359,7 @@
         <v>01-15</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2378,7 +2377,7 @@
         <v>02-22</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2396,7 +2395,7 @@
         <v>03-20</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2414,7 +2413,7 @@
         <v>04-16</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2432,7 +2431,7 @@
         <v>05-15</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2450,7 +2449,7 @@
         <v>06-15</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F43" s="15">
         <v>152685.60999999999</v>
@@ -2471,7 +2470,7 @@
         <v>06-30</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F44" s="15">
         <v>154975.894</v>
@@ -2492,7 +2491,7 @@
         <v>07-16</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2510,7 +2509,7 @@
         <v>08-15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2528,7 +2527,7 @@
         <v>09-18</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2546,7 +2545,7 @@
         <v>10-15</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2564,7 +2563,7 @@
         <v>11-15</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2582,7 +2581,7 @@
         <v>12-18</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2612,7 +2611,7 @@
         <v>01-16</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2630,7 +2629,7 @@
         <v>02-15</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2648,7 +2647,7 @@
         <v>03-15</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2666,7 +2665,7 @@
         <v>04-18</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2684,7 +2683,7 @@
         <v>05-18</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2702,7 +2701,7 @@
         <v>06-15</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F59" s="15">
         <v>106286.75</v>
@@ -2723,7 +2722,7 @@
         <v>06-30</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F60" s="15">
         <v>106605.61</v>
@@ -2744,7 +2743,7 @@
         <v>07-18</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2762,7 +2761,7 @@
         <v>08-18</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2780,7 +2779,7 @@
         <v>09-15</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2798,7 +2797,7 @@
         <v>10-18</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2816,7 +2815,7 @@
         <v>11-15</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2834,7 +2833,7 @@
         <v>12-16</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2860,7 +2859,7 @@
         <v>01-15</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2878,7 +2877,7 @@
         <v>02-15</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2896,7 +2895,7 @@
         <v>03-15</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2914,7 +2913,7 @@
         <v>04-15</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2932,7 +2931,7 @@
         <v>05-18</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2950,7 +2949,7 @@
         <v>06-15</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F75" s="15">
         <v>64285.8923</v>
@@ -2971,7 +2970,7 @@
         <v>06-30</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F76" s="15">
         <v>64478.75</v>
@@ -2992,7 +2991,7 @@
         <v>07-15</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3010,7 +3009,7 @@
         <v>08-18</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3028,7 +3027,7 @@
         <v>09-12</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3046,7 +3045,7 @@
         <v>10-12</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3064,7 +3063,7 @@
         <v>11-15</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3082,86 +3081,86 @@
         <v>12-16</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="F88" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="G88" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="H88" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="I88" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="J88" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="K88" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H88" s="15" t="s">
+      <c r="L88" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="M88" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="J88" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K88" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L88" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M88" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B89" s="17">
         <v>2121</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F89" s="17">
         <v>3231123</v>
       </c>
       <c r="G89" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K89" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H89" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="J89" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K89" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="L89" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M89" s="15">
         <v>30000</v>
@@ -3172,55 +3171,55 @@
         <v>46</v>
       </c>
       <c r="C92" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="H92" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="I92" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="J92" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="K92" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="L92" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I92" s="14" t="s">
+      <c r="M92" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J92" s="14" t="s">
+      <c r="N92" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K92" s="14" t="s">
+      <c r="O92" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L92" s="14" t="s">
+      <c r="P92" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="M92" s="14" t="s">
+      <c r="Q92" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="N92" s="14" t="s">
+      <c r="R92" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="O92" s="14" t="s">
+      <c r="S92" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="P92" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q92" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="R92" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S92" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="T92" s="14"/>
     </row>
@@ -3241,10 +3240,10 @@
         <v>2020-01</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E94" s="18">
         <v>30000</v>
@@ -3301,10 +3300,10 @@
         <v>2020-02</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E95" s="18">
         <v>30001</v>
@@ -3361,10 +3360,10 @@
         <v>2020-03</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E96" s="18">
         <v>30002</v>
@@ -3421,10 +3420,10 @@
         <v>2020-04</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E97" s="18">
         <v>30003</v>
@@ -3474,10 +3473,10 @@
         <v>2020-05</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E98" s="18">
         <v>30004</v>
@@ -3527,10 +3526,10 @@
         <v>2020-06</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E99" s="18">
         <v>30005</v>
@@ -3580,10 +3579,10 @@
         <v>2020-07</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E100" s="18">
         <v>30006</v>
@@ -3633,10 +3632,10 @@
         <v>2020-08</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E101" s="18">
         <v>30007</v>
@@ -3686,10 +3685,10 @@
         <v>2020-09</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E102" s="18">
         <v>30008</v>
@@ -3746,10 +3745,10 @@
         <v>2020-10</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E103" s="18">
         <v>30009</v>
@@ -3799,10 +3798,10 @@
         <v>2020-11</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E104" s="18">
         <v>30010</v>
@@ -3852,10 +3851,10 @@
         <v>2020-12</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E105" s="18">
         <v>30011</v>
@@ -3901,7 +3900,7 @@
         <v>48</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -3913,10 +3912,10 @@
         <v>2019-01</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E109" s="18">
         <v>20000</v>
@@ -3973,10 +3972,10 @@
         <v>2019-02</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E110" s="18">
         <v>20001</v>
@@ -4033,10 +4032,10 @@
         <v>2019-03</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E111" s="18">
         <v>20002</v>
@@ -4093,10 +4092,10 @@
         <v>2019-04</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E112" s="18">
         <v>20003</v>
@@ -4146,10 +4145,10 @@
         <v>2019-05</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E113" s="18">
         <v>20004</v>
@@ -4199,10 +4198,10 @@
         <v>2019-06</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E114" s="18">
         <v>20005</v>
@@ -4252,10 +4251,10 @@
         <v>2019-07</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E115" s="18">
         <v>20006</v>
@@ -4305,10 +4304,10 @@
         <v>2019-08</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E116" s="18">
         <v>20007</v>
@@ -4358,10 +4357,10 @@
         <v>2019-09</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E117" s="18">
         <v>20008</v>
@@ -4418,10 +4417,10 @@
         <v>2019-10</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E118" s="18">
         <v>20009</v>
@@ -4471,10 +4470,10 @@
         <v>2019-11</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E119" s="18">
         <v>20010</v>
@@ -4524,10 +4523,10 @@
         <v>2019-12</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E120" s="18">
         <v>20011</v>
@@ -4573,7 +4572,7 @@
         <v>48</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -4585,10 +4584,10 @@
         <v>2018-01</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E124" s="18">
         <v>18000</v>
@@ -4645,10 +4644,10 @@
         <v>2018-02</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E125" s="18">
         <v>18001</v>
@@ -4705,10 +4704,10 @@
         <v>2018-03</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E126" s="18">
         <v>18002</v>
@@ -4765,10 +4764,10 @@
         <v>2018-04</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E127" s="18">
         <v>18003</v>
@@ -4818,10 +4817,10 @@
         <v>2018-05</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E128" s="18">
         <v>18004</v>
@@ -4871,10 +4870,10 @@
         <v>2018-06</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E129" s="18">
         <v>18005</v>
@@ -4924,10 +4923,10 @@
         <v>2018-07</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E130" s="18">
         <v>18006</v>
@@ -4977,10 +4976,10 @@
         <v>2018-08</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E131" s="18">
         <v>18007</v>
@@ -5030,10 +5029,10 @@
         <v>2018-09</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E132" s="18">
         <v>18008</v>
@@ -5090,10 +5089,10 @@
         <v>2018-10</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E133" s="18">
         <v>18009</v>
@@ -5143,10 +5142,10 @@
         <v>2018-11</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E134" s="18">
         <v>18010</v>
@@ -5196,10 +5195,10 @@
         <v>2018-12</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E135" s="18">
         <v>18011</v>

--- a/__encodeapk/text_01.xlsx
+++ b/__encodeapk/text_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280AEC4E-3F7F-4841-98B6-8E0687EDAEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E570E6-BE1A-FF4C-91C4-5D5FDA27723F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="460" windowWidth="22240" windowHeight="13800" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="83">
   <si>
     <t>天气</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>多云 限行 0/3</t>
+  </si>
+  <si>
+    <t>北京通号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>68788878070570581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB30BBA1-B9A3-D741-9C3F-84FC00DBD527}">
-  <dimension ref="A1:T135"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -818,7 +830,7 @@
     <col min="22" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -873,8 +885,14 @@
       <c r="T1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -936,8 +954,14 @@
       <c r="T2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="K3" s="6">
         <v>44211</v>
       </c>
@@ -949,7 +973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="K4" s="6">
         <v>44212</v>
       </c>
@@ -961,7 +985,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -982,7 +1006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -991,7 +1015,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22">
       <c r="A7" s="6">
         <v>43851</v>
       </c>
@@ -1010,7 +1034,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:22">
       <c r="A8" s="6">
         <v>43879</v>
       </c>
@@ -1029,7 +1053,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:22">
       <c r="A9" s="6">
         <v>43906</v>
       </c>
@@ -1048,7 +1072,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:22">
       <c r="A10" s="6">
         <v>43937</v>
       </c>
@@ -1067,7 +1091,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:22">
       <c r="A11" s="6">
         <v>43966</v>
       </c>
@@ -1086,7 +1110,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:22">
       <c r="A12" s="6">
         <v>43997</v>
       </c>
@@ -1108,7 +1132,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:22">
       <c r="A13" s="9">
         <v>44012</v>
       </c>
@@ -1130,7 +1154,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:22">
       <c r="A14" s="6">
         <v>44034</v>
       </c>
@@ -1149,7 +1173,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:22">
       <c r="A15" s="6">
         <v>44032</v>
       </c>
@@ -1167,7 +1191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:22">
       <c r="A16" s="6">
         <v>44061</v>
       </c>

--- a/__encodeapk/text_01.xlsx
+++ b/__encodeapk/text_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E570E6-BE1A-FF4C-91C4-5D5FDA27723F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF9DCDF-ED70-0043-AC86-4E61726F7A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="460" windowWidth="22240" windowHeight="13800" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>签名Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯科技有限公司</t>
   </si>
   <si>
@@ -335,6 +331,10 @@
   <si>
     <t>是否自动登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB30BBA1-B9A3-D741-9C3F-84FC00DBD527}">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -886,10 +886,10 @@
         <v>27</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -931,7 +931,7 @@
         <v>2021-01-14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>29</v>
@@ -955,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V2" s="2">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2021-01-15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -982,7 +982,7 @@
         <v>2021-01-16</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1003,7 +1003,7 @@
         <v>2021-01-17</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2299,28 +2299,28 @@
         <v>49</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F89" s="4">
         <v>3231123</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="L89" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M89" s="2">
         <v>30000</v>
@@ -2331,55 +2331,55 @@
         <v>15</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="P92" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="Q92" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q92" s="1" t="s">
+      <c r="R92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R92" s="1" t="s">
+      <c r="S92" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="T92" s="1"/>
     </row>
@@ -2403,7 +2403,7 @@
         <v>34</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E94" s="5">
         <v>30000</v>
@@ -2463,7 +2463,7 @@
         <v>34</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E95" s="5">
         <v>30001</v>
@@ -2523,7 +2523,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E96" s="5">
         <v>30002</v>
@@ -2583,7 +2583,7 @@
         <v>34</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E97" s="5">
         <v>30003</v>
@@ -2636,7 +2636,7 @@
         <v>34</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E98" s="5">
         <v>30004</v>
@@ -2689,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E99" s="5">
         <v>30005</v>
@@ -2742,7 +2742,7 @@
         <v>34</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E100" s="5">
         <v>30006</v>
@@ -2795,7 +2795,7 @@
         <v>34</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E101" s="5">
         <v>30007</v>
@@ -2848,7 +2848,7 @@
         <v>34</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E102" s="5">
         <v>30008</v>
@@ -2908,7 +2908,7 @@
         <v>34</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E103" s="5">
         <v>30009</v>
@@ -2961,7 +2961,7 @@
         <v>34</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E104" s="5">
         <v>30010</v>
@@ -3014,7 +3014,7 @@
         <v>34</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E105" s="5">
         <v>30011</v>
@@ -3060,7 +3060,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -3075,7 +3075,7 @@
         <v>34</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E109" s="5">
         <v>20000</v>
@@ -3135,7 +3135,7 @@
         <v>34</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E110" s="5">
         <v>20001</v>
@@ -3195,7 +3195,7 @@
         <v>34</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E111" s="5">
         <v>20002</v>
@@ -3255,7 +3255,7 @@
         <v>34</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E112" s="5">
         <v>20003</v>
@@ -3308,7 +3308,7 @@
         <v>34</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E113" s="5">
         <v>20004</v>
@@ -3361,7 +3361,7 @@
         <v>34</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E114" s="5">
         <v>20005</v>
@@ -3414,7 +3414,7 @@
         <v>34</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E115" s="5">
         <v>20006</v>
@@ -3467,7 +3467,7 @@
         <v>34</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E116" s="5">
         <v>20007</v>
@@ -3520,7 +3520,7 @@
         <v>34</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E117" s="5">
         <v>20008</v>
@@ -3580,7 +3580,7 @@
         <v>34</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E118" s="5">
         <v>20009</v>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E119" s="5">
         <v>20010</v>
@@ -3686,7 +3686,7 @@
         <v>34</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E120" s="5">
         <v>20011</v>
@@ -3732,7 +3732,7 @@
         <v>17</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -3747,7 +3747,7 @@
         <v>34</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E124" s="5">
         <v>18000</v>
@@ -3807,7 +3807,7 @@
         <v>34</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E125" s="5">
         <v>18001</v>
@@ -3867,7 +3867,7 @@
         <v>34</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E126" s="5">
         <v>18002</v>
@@ -3927,7 +3927,7 @@
         <v>34</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E127" s="5">
         <v>18003</v>
@@ -3980,7 +3980,7 @@
         <v>34</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E128" s="5">
         <v>18004</v>
@@ -4033,7 +4033,7 @@
         <v>34</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E129" s="5">
         <v>18005</v>
@@ -4086,7 +4086,7 @@
         <v>34</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E130" s="5">
         <v>18006</v>
@@ -4139,7 +4139,7 @@
         <v>34</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E131" s="5">
         <v>18007</v>
@@ -4192,7 +4192,7 @@
         <v>34</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E132" s="5">
         <v>18008</v>
@@ -4252,7 +4252,7 @@
         <v>34</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E133" s="5">
         <v>18009</v>
@@ -4305,7 +4305,7 @@
         <v>34</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E134" s="5">
         <v>18010</v>
@@ -4358,7 +4358,7 @@
         <v>34</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E135" s="5">
         <v>18011</v>
